--- a/name_dictionary.xlsx
+++ b/name_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liu_Lei\PycharmProjects\global_financial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE94BD0-8DEE-466E-A9CA-CF46750F2D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4EBFA0-D339-4E30-B472-CA22D2824F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="715" firstSheet="1" activeTab="6" xr2:uid="{2425A6B8-B0A2-4A05-9503-547A357F2750}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="715" activeTab="5" xr2:uid="{2425A6B8-B0A2-4A05-9503-547A357F2750}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -23,10 +23,11 @@
     <sheet name="stock2402" sheetId="9" r:id="rId8"/>
     <sheet name="hk4001" sheetId="11" r:id="rId9"/>
     <sheet name="hk4021" sheetId="12" r:id="rId10"/>
-    <sheet name="hk4023" sheetId="16" r:id="rId11"/>
-    <sheet name="hk4024" sheetId="13" r:id="rId12"/>
-    <sheet name="hk4025" sheetId="14" r:id="rId13"/>
-    <sheet name="hk4026" sheetId="15" r:id="rId14"/>
+    <sheet name="hk4022" sheetId="17" r:id="rId11"/>
+    <sheet name="hk4023" sheetId="16" r:id="rId12"/>
+    <sheet name="hk4024" sheetId="13" r:id="rId13"/>
+    <sheet name="hk4025" sheetId="14" r:id="rId14"/>
+    <sheet name="hk4026" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="913">
   <si>
     <t>中文名称</t>
   </si>
@@ -576,9 +577,6 @@
     <t>净资产比率</t>
   </si>
   <si>
-    <t>资产负债比率</t>
-  </si>
-  <si>
     <t>流动比率</t>
   </si>
   <si>
@@ -772,9 +770,6 @@
   </si>
   <si>
     <t>F089N</t>
-  </si>
-  <si>
-    <t>营业收入</t>
   </si>
   <si>
     <t>F090N</t>
@@ -2507,9 +2502,6 @@
     <t>F078V</t>
   </si>
   <si>
-    <t>F084N`</t>
-  </si>
-  <si>
     <t>应收帐款周转天数</t>
   </si>
   <si>
@@ -2785,6 +2777,169 @@
   </si>
   <si>
     <t>DECLAREDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产负债比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECCODE排除 8 开头的股票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">缘由
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2024年04月02日 发现有一个叫“金麒麟”的公司，查询稀释每股收益发现同一年有两个数据。咨询周志鹏得知，这是因为有两个公司重名了。其中一个是北交所的公司。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">解决方案
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理论上应该把所有的查询都改用 SECCODE 进行（现在是SECNAME），这样最准确。但想想这样的改动可能太麻烦，于是目前只是过滤掉北交所的公司。北交所公司的代码据说以8开头，因此在 stock2100，stock2300，stock2301，stock2302，stock2303，stock2401，stock2402的SQL语句里，都增加了：
+          SECCODE NOT REGEXP "^8"
+这样的规则。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>港股公司概况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hk4001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hk4023</t>
+  </si>
+  <si>
+    <t>资产负债表(非银行)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要指标表（银行）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hk4022</t>
+  </si>
+  <si>
+    <t>客户贷款及垫款</t>
+  </si>
+  <si>
+    <t>银行同业贷款及垫款</t>
+  </si>
+  <si>
+    <t>定期存放银行同业及其他财务机构</t>
+  </si>
+  <si>
+    <t>同业及财务机构存款</t>
+  </si>
+  <si>
+    <t>客户存款</t>
+  </si>
+  <si>
+    <t>总负债</t>
+  </si>
+  <si>
+    <t>非盈利/特殊项目</t>
+  </si>
+  <si>
+    <t>资本充足比率</t>
+  </si>
+  <si>
+    <t>流动资金比率</t>
+  </si>
+  <si>
+    <t>成本/收入</t>
+  </si>
+  <si>
+    <t>流动资金/存款</t>
+  </si>
+  <si>
+    <t>贷款/存款</t>
+  </si>
+  <si>
+    <t>贷款/股东权益</t>
+  </si>
+  <si>
+    <t>贷款/总资产</t>
+  </si>
+  <si>
+    <t>存款/股东权益</t>
+  </si>
+  <si>
+    <t>存款/总资产</t>
+  </si>
+  <si>
+    <t>贷款回报率</t>
+  </si>
+  <si>
+    <t>存款回报率</t>
+  </si>
+  <si>
+    <t>资产回报率</t>
+  </si>
+  <si>
+    <t>F057V</t>
+  </si>
+  <si>
+    <t>F062V</t>
+  </si>
+  <si>
+    <t>资产负债比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F084N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2796,7 +2951,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2840,6 +2995,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2909,7 +3073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2952,6 +3116,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2971,9 +3141,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3011,7 +3181,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3117,7 +3287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3259,7 +3429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3267,7 +3437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62FF4E9-906C-4C49-9E83-D1967DB956F1}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3279,58 +3449,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>745</v>
+      <c r="A7" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -3343,78 +3513,110 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>819</v>
+        <v>884</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>820</v>
+        <v>885</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>510</v>
+        <v>745</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="119.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>656</v>
+      <c r="B17" s="2" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B18" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="119.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>517</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="166.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>881</v>
       </c>
     </row>
   </sheetData>
@@ -3430,9 +3632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882E7D6A-E570-47DF-9D56-06B54367029A}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3444,16 +3644,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -3481,7 +3681,7 @@
         <v>133</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3491,7 +3691,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3501,7 +3701,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3511,7 +3711,7 @@
         <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3521,7 +3721,7 @@
         <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3541,7 +3741,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3551,7 +3751,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3561,7 +3761,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3571,7 +3771,7 @@
         <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3581,7 +3781,7 @@
         <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3591,7 +3791,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3601,7 +3801,7 @@
         <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3611,7 +3811,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3621,7 +3821,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3631,7 +3831,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3641,7 +3841,7 @@
         <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3651,7 +3851,7 @@
         <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3661,7 +3861,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3671,10 +3871,10 @@
         <v>89</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -3683,7 +3883,7 @@
         <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3693,10 +3893,10 @@
         <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -3715,7 +3915,7 @@
         <v>99</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3725,10 +3925,10 @@
         <v>101</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -3737,7 +3937,7 @@
         <v>103</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3747,7 +3947,7 @@
         <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3757,7 +3957,7 @@
         <v>111</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3767,17 +3967,17 @@
         <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3787,7 +3987,7 @@
         <v>115</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3797,7 +3997,7 @@
         <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3807,7 +4007,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3817,7 +4017,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3827,27 +4027,27 @@
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3857,7 +4057,7 @@
         <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3867,7 +4067,7 @@
         <v>120</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3877,7 +4077,7 @@
         <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3887,21 +4087,21 @@
         <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -3909,7 +4109,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3919,7 +4119,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3936,32 +4136,32 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3973,6 +4173,744 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5052AC91-200A-4FC6-9B7B-CF12E6040E4F}">
+  <dimension ref="A1:D70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="48.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.265625" customWidth="1"/>
+    <col min="4" max="4" width="27.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE2BD67-E7B5-4443-B094-431E85F8128E}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -3988,16 +4926,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -4025,7 +4963,7 @@
         <v>133</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4035,7 +4973,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4045,7 +4983,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4055,7 +4993,7 @@
         <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4065,7 +5003,7 @@
         <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4075,7 +5013,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4085,7 +5023,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4095,7 +5033,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4105,7 +5043,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4115,7 +5053,7 @@
         <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4125,7 +5063,7 @@
         <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4135,7 +5073,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4145,7 +5083,7 @@
         <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4155,7 +5093,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4165,7 +5103,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4175,7 +5113,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4185,7 +5123,7 @@
         <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4195,7 +5133,7 @@
         <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4205,7 +5143,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4215,17 +5153,17 @@
         <v>89</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4235,23 +5173,23 @@
         <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -4259,7 +5197,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4269,7 +5207,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4286,36 +5224,36 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -4324,11 +5262,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F1C545-2D78-4F29-AAEC-B41861FBCD89}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4340,16 +5278,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -4377,7 +5315,7 @@
         <v>133</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4387,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4397,7 +5335,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4407,7 +5345,7 @@
         <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4417,7 +5355,7 @@
         <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4427,7 +5365,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4437,7 +5375,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4447,7 +5385,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4457,7 +5395,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4467,7 +5405,7 @@
         <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4487,10 +5425,10 @@
         <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -4499,7 +5437,7 @@
         <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4509,7 +5447,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4519,7 +5457,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4529,7 +5467,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4539,10 +5477,10 @@
         <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -4551,7 +5489,7 @@
         <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4561,7 +5499,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4571,17 +5509,17 @@
         <v>89</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4591,7 +5529,7 @@
         <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4601,7 +5539,7 @@
         <v>97</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4611,7 +5549,7 @@
         <v>99</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4621,7 +5559,7 @@
         <v>101</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4631,27 +5569,27 @@
         <v>103</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4661,7 +5599,7 @@
         <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4671,7 +5609,7 @@
         <v>163</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4681,7 +5619,7 @@
         <v>115</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4691,7 +5629,7 @@
         <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4701,7 +5639,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4711,7 +5649,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4721,21 +5659,21 @@
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -4743,7 +5681,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4753,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -4770,36 +5708,36 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -4808,11 +5746,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9A811-0628-432F-88C7-CB841B53A350}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4823,16 +5763,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -4860,7 +5800,7 @@
         <v>133</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4870,7 +5810,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4880,7 +5820,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4890,7 +5830,7 @@
         <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4903,7 +5843,7 @@
         <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -4915,7 +5855,7 @@
         <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -4924,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4934,7 +5874,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4944,7 +5884,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4954,7 +5894,7 @@
         <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4964,7 +5904,7 @@
         <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4974,7 +5914,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4984,7 +5924,7 @@
         <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4994,7 +5934,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5004,7 +5944,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5014,7 +5954,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5024,10 +5964,10 @@
         <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -5036,7 +5976,7 @@
         <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5046,7 +5986,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -5056,7 +5996,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -5066,7 +6006,7 @@
         <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -5076,10 +6016,10 @@
         <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -5088,7 +6028,7 @@
         <v>97</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5098,10 +6038,10 @@
         <v>99</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -5120,10 +6060,10 @@
         <v>103</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D29" s="1"/>
     </row>
@@ -5132,7 +6072,7 @@
         <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5142,7 +6082,7 @@
         <v>111</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5152,7 +6092,7 @@
         <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5162,10 +6102,10 @@
         <v>163</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D33" s="1"/>
     </row>
@@ -5174,7 +6114,7 @@
         <v>115</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5184,7 +6124,7 @@
         <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5194,7 +6134,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5204,7 +6144,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5214,7 +6154,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5224,7 +6164,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5234,7 +6174,7 @@
         <v>73</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5244,7 +6184,7 @@
         <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5254,9 +6194,11 @@
         <v>120</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>910</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>830</v>
+      </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -5264,7 +6206,7 @@
         <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5274,10 +6216,10 @@
         <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D44" s="1"/>
     </row>
@@ -5286,10 +6228,10 @@
         <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D45" s="1"/>
     </row>
@@ -5298,7 +6240,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5308,7 +6250,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5318,7 +6260,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5328,9 +6270,11 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>909</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>773</v>
+      </c>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -5338,7 +6282,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5348,7 +6292,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -5378,14 +6322,14 @@
         <v>75</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>156</v>
@@ -5395,30 +6339,30 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -5428,7 +6372,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -5438,7 +6382,7 @@
         <v>77</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -5448,7 +6392,7 @@
         <v>79</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -5458,7 +6402,7 @@
         <v>81</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -5468,7 +6412,7 @@
         <v>107</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -5478,7 +6422,7 @@
         <v>109</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -5488,7 +6432,7 @@
         <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -5498,161 +6442,161 @@
         <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -5662,10 +6606,10 @@
         <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D82" s="1"/>
     </row>
@@ -5674,7 +6618,7 @@
         <v>12</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -5684,14 +6628,14 @@
         <v>14</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>159</v>
@@ -5701,7 +6645,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>164</v>
@@ -5711,7 +6655,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>165</v>
@@ -5721,7 +6665,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>166</v>
@@ -5731,145 +6675,146 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>803</v>
+        <v>911</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AC6D0E-E44F-46BA-9598-68E7C0D0C807}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -5883,13 +6828,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -5912,19 +6857,19 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -5933,7 +6878,7 @@
         <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -5941,28 +6886,28 @@
       <c r="A7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="B7" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>875</v>
-      </c>
+        <v>872</v>
+      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -5971,16 +6916,16 @@
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -5989,7 +6934,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -5998,7 +6943,7 @@
         <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -6007,25 +6952,25 @@
         <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -6050,21 +6995,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -6100,7 +7045,7 @@
         <v>133</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -6109,7 +7054,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -6118,7 +7063,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -6127,7 +7072,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -6136,16 +7081,16 @@
         <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -6154,427 +7099,427 @@
         <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C58" s="1"/>
     </row>
@@ -6865,7 +7810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A046F9-CB39-40F7-B8E5-3ADA0C5B674D}">
   <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6875,7 +7822,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -6950,7 +7897,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -6990,23 +7937,23 @@
         <v>27</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -7014,15 +7961,15 @@
         <v>37</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -7030,7 +7977,7 @@
         <v>53</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -7038,7 +7985,7 @@
         <v>55</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -7046,31 +7993,31 @@
         <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -7078,7 +8025,7 @@
         <v>65</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -7086,7 +8033,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -7094,7 +8041,7 @@
         <v>59</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
@@ -7102,15 +8049,15 @@
         <v>61</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -7118,7 +8065,7 @@
         <v>69</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
@@ -7126,23 +8073,23 @@
         <v>71</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -7150,31 +8097,31 @@
         <v>83</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -7182,7 +8129,7 @@
         <v>85</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -7190,15 +8137,15 @@
         <v>87</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -7206,7 +8153,7 @@
         <v>89</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -7214,7 +8161,7 @@
         <v>93</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
@@ -7222,7 +8169,7 @@
         <v>95</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
@@ -7230,7 +8177,7 @@
         <v>97</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
@@ -7238,7 +8185,7 @@
         <v>99</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
@@ -7246,7 +8193,7 @@
         <v>101</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
@@ -7254,7 +8201,7 @@
         <v>103</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
@@ -7262,7 +8209,7 @@
         <v>105</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
@@ -7270,7 +8217,7 @@
         <v>111</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
@@ -7278,7 +8225,7 @@
         <v>113</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
@@ -7286,7 +8233,7 @@
         <v>163</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
@@ -7294,7 +8241,7 @@
         <v>115</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
@@ -7302,7 +8249,7 @@
         <v>117</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
@@ -7310,7 +8257,7 @@
         <v>29</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
@@ -7318,7 +8265,7 @@
         <v>31</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
@@ -7326,39 +8273,39 @@
         <v>25</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
@@ -7366,7 +8313,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
@@ -7374,7 +8321,7 @@
         <v>73</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
@@ -7382,7 +8329,7 @@
         <v>118</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
@@ -7390,31 +8337,31 @@
         <v>120</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
@@ -7422,15 +8369,15 @@
         <v>122</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
@@ -7438,7 +8385,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
@@ -7446,7 +8393,7 @@
         <v>33</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
@@ -7454,23 +8401,23 @@
         <v>39</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
@@ -7478,7 +8425,7 @@
         <v>41</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
@@ -7486,7 +8433,7 @@
         <v>43</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
@@ -7494,7 +8441,7 @@
         <v>45</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
@@ -7502,7 +8449,7 @@
         <v>47</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
@@ -7510,7 +8457,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
@@ -7518,47 +8465,47 @@
         <v>51</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
@@ -7566,47 +8513,47 @@
         <v>91</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
@@ -7614,63 +8561,63 @@
         <v>75</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
@@ -7678,7 +8625,7 @@
         <v>63</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
@@ -7686,15 +8633,15 @@
         <v>77</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
@@ -7702,7 +8649,7 @@
         <v>79</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
@@ -7710,7 +8657,7 @@
         <v>81</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
@@ -7718,7 +8665,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
@@ -7726,7 +8673,7 @@
         <v>109</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
@@ -7734,31 +8681,31 @@
         <v>126</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
@@ -7766,135 +8713,135 @@
         <v>128</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -7908,9 +8855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9750F5-EB19-4360-83B8-472447E5DF72}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView topLeftCell="A35" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7921,13 +8866,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -7977,7 +8922,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
@@ -8007,7 +8952,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -8052,7 +8997,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>26</v>
@@ -8063,7 +9008,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>28</v>
@@ -8101,7 +9046,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>36</v>
@@ -8112,7 +9057,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>38</v>
@@ -8186,7 +9131,7 @@
         <v>53</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>54</v>
@@ -8251,7 +9196,7 @@
         <v>67</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>68</v>
@@ -8451,7 +9396,7 @@
         <v>111</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>112</v>
@@ -8471,7 +9416,7 @@
         <v>115</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>116</v>
@@ -8482,10 +9427,10 @@
         <v>117</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
@@ -8526,10 +9471,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C66" s="1"/>
     </row>
@@ -8553,19 +9498,19 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C70" s="1"/>
     </row>
@@ -8580,8 +9525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E70D0C-F89E-4305-9FB7-20EC9A091CFC}">
   <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8592,7 +9537,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -8667,7 +9612,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -8707,87 +9652,87 @@
         <v>27</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -8795,7 +9740,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -8803,7 +9748,7 @@
         <v>53</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -8811,7 +9756,7 @@
         <v>55</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
@@ -8819,47 +9764,47 @@
         <v>57</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -8867,7 +9812,7 @@
         <v>59</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -8875,7 +9820,7 @@
         <v>61</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
@@ -8883,7 +9828,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
@@ -8891,7 +9836,7 @@
         <v>67</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -8899,7 +9844,7 @@
         <v>69</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -8907,7 +9852,7 @@
         <v>71</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -8915,7 +9860,7 @@
         <v>83</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -8923,7 +9868,7 @@
         <v>85</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -8931,7 +9876,7 @@
         <v>87</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
@@ -8939,7 +9884,7 @@
         <v>89</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
@@ -8947,7 +9892,7 @@
         <v>93</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
@@ -8955,7 +9900,7 @@
         <v>95</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
@@ -8963,15 +9908,15 @@
         <v>97</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
@@ -8979,7 +9924,7 @@
         <v>99</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
@@ -8987,7 +9932,7 @@
         <v>101</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
@@ -8995,7 +9940,7 @@
         <v>103</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
@@ -9003,7 +9948,7 @@
         <v>105</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
@@ -9011,15 +9956,15 @@
         <v>111</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
@@ -9027,15 +9972,15 @@
         <v>113</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
@@ -9043,7 +9988,7 @@
         <v>163</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
@@ -9051,7 +9996,7 @@
         <v>115</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
@@ -9059,7 +10004,7 @@
         <v>117</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
@@ -9067,15 +10012,15 @@
         <v>29</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
@@ -9083,7 +10028,7 @@
         <v>31</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
@@ -9091,7 +10036,7 @@
         <v>25</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
@@ -9099,7 +10044,7 @@
         <v>35</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
@@ -9107,7 +10052,7 @@
         <v>73</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
@@ -9115,7 +10060,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
@@ -9123,7 +10068,7 @@
         <v>120</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -9131,7 +10076,7 @@
         <v>122</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
@@ -9139,7 +10084,7 @@
         <v>124</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
@@ -9147,7 +10092,7 @@
         <v>41</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
@@ -9155,7 +10100,7 @@
         <v>43</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
@@ -9163,15 +10108,15 @@
         <v>45</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
@@ -9179,7 +10124,7 @@
         <v>47</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
@@ -9187,7 +10132,7 @@
         <v>49</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
@@ -9195,7 +10140,7 @@
         <v>51</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
@@ -9203,7 +10148,7 @@
         <v>91</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
@@ -9211,12 +10156,12 @@
         <v>75</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>62</v>
@@ -9224,26 +10169,26 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
@@ -9251,7 +10196,7 @@
         <v>63</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
@@ -9259,7 +10204,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
@@ -9267,7 +10212,7 @@
         <v>79</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
@@ -9275,7 +10220,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
@@ -9283,7 +10228,7 @@
         <v>107</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
@@ -9291,7 +10236,7 @@
         <v>126</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
@@ -9299,68 +10244,68 @@
         <v>128</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>78</v>
@@ -9368,26 +10313,26 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
@@ -9395,7 +10340,7 @@
         <v>63</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
@@ -9403,15 +10348,15 @@
         <v>77</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
@@ -9419,7 +10364,7 @@
         <v>79</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
@@ -9427,7 +10372,7 @@
         <v>81</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
@@ -9435,7 +10380,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
@@ -9443,7 +10388,7 @@
         <v>109</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
@@ -9451,31 +10396,31 @@
         <v>126</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
@@ -9483,135 +10428,135 @@
         <v>128</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -9625,8 +10570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD7FB30-2585-43F4-9B3D-AE1F3EB6A8BB}">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -9638,13 +10583,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -9805,7 +10750,7 @@
         <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -9832,7 +10777,7 @@
         <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C22" s="1"/>
     </row>
@@ -9850,7 +10795,7 @@
         <v>71</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>150</v>
@@ -9861,9 +10806,11 @@
         <v>83</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>910</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
@@ -10077,16 +11024,18 @@
         <v>124</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>909</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C50" s="1"/>
     </row>
@@ -10095,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C51" s="1"/>
     </row>
@@ -10104,7 +11053,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C52" s="1"/>
     </row>
@@ -10113,7 +11062,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53" s="1"/>
     </row>
@@ -10122,10 +11071,10 @@
         <v>45</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
@@ -10133,7 +11082,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C55" s="1"/>
     </row>
@@ -10142,7 +11091,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C56" s="1"/>
     </row>
@@ -10151,7 +11100,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C57" s="1"/>
     </row>
@@ -10160,7 +11109,7 @@
         <v>91</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C58" s="1"/>
     </row>
@@ -10169,43 +11118,43 @@
         <v>75</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="C63" s="1"/>
     </row>
@@ -10214,7 +11163,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64" s="1"/>
     </row>
@@ -10223,7 +11172,7 @@
         <v>77</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" s="1"/>
     </row>
@@ -10232,7 +11181,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C66" s="1"/>
     </row>
@@ -10241,7 +11190,7 @@
         <v>81</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C67" s="1"/>
     </row>
@@ -10250,7 +11199,7 @@
         <v>107</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C68" s="1"/>
     </row>
@@ -10259,7 +11208,7 @@
         <v>109</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C69" s="1"/>
     </row>
@@ -10268,7 +11217,7 @@
         <v>126</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C70" s="1"/>
     </row>
@@ -10277,67 +11226,67 @@
         <v>128</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>18</v>
@@ -10346,7 +11295,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>20</v>
@@ -10355,144 +11304,144 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>241</v>
+        <v>848</v>
       </c>
       <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>56</v>
@@ -10501,7 +11450,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>58</v>
@@ -10510,7 +11459,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>62</v>
@@ -10519,25 +11468,25 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>70</v>
@@ -10546,304 +11495,304 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C101" s="1"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C102" s="1"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C103" s="1"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C104" s="1"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C105" s="1"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C110" s="1"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C111" s="1"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C112" s="1"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C113" s="1"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C116" s="1"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C117" s="1"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C118" s="1"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C119" s="1"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C120" s="1"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C121" s="1"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C122" s="1"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C123" s="1"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C124" s="1"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C125" s="1"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C126" s="1"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C127" s="1"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C128" s="1"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C129" s="1"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C132" s="1"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C133" s="1"/>
     </row>
@@ -10867,9 +11816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A5ACD6-EAE4-4A1C-B3B6-3D123C422FF1}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -10880,13 +11827,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -10909,10 +11856,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -10921,16 +11868,16 @@
         <v>133</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -10939,7 +11886,7 @@
         <v>136</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -10948,7 +11895,7 @@
         <v>138</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -10957,7 +11904,7 @@
         <v>140</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -10966,7 +11913,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -10975,10 +11922,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -10986,7 +11933,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -10995,7 +11942,7 @@
         <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -11004,7 +11951,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -11013,7 +11960,7 @@
         <v>59</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -11022,7 +11969,7 @@
         <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -11031,7 +11978,7 @@
         <v>65</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -11040,7 +11987,7 @@
         <v>89</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -11049,7 +11996,7 @@
         <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -11058,7 +12005,7 @@
         <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C20" s="1"/>
     </row>
@@ -11074,7 +12021,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -11086,13 +12033,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -11115,10 +12062,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -11127,16 +12074,16 @@
         <v>133</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -11145,7 +12092,7 @@
         <v>136</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -11154,7 +12101,7 @@
         <v>138</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -11163,7 +12110,7 @@
         <v>140</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -11172,7 +12119,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -11181,10 +12128,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -11192,7 +12139,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -11201,7 +12148,7 @@
         <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -11210,7 +12157,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -11219,7 +12166,7 @@
         <v>59</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -11228,7 +12175,7 @@
         <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -11237,7 +12184,7 @@
         <v>65</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -11246,7 +12193,7 @@
         <v>89</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -11255,7 +12202,7 @@
         <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -11264,7 +12211,7 @@
         <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C20" s="1"/>
     </row>
@@ -11280,7 +12227,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -11292,13 +12239,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -11306,10 +12253,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -11317,10 +12264,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -11328,7 +12275,7 @@
         <v>133</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -11337,7 +12284,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -11346,7 +12293,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -11355,7 +12302,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -11364,146 +12311,146 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -11512,70 +12459,70 @@
         <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C31" s="1"/>
     </row>
